--- a/natmiOut/YoungD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.9339721155326</v>
+        <v>23.62326166666666</v>
       </c>
       <c r="N2">
-        <v>20.9339721155326</v>
+        <v>70.86978499999999</v>
       </c>
       <c r="O2">
-        <v>0.5008298466060128</v>
+        <v>0.5054607868187523</v>
       </c>
       <c r="P2">
-        <v>0.5008298466060128</v>
+        <v>0.5054607868187523</v>
       </c>
       <c r="Q2">
-        <v>2078.250785465312</v>
+        <v>2475.595005329262</v>
       </c>
       <c r="R2">
-        <v>2078.250785465312</v>
+        <v>22280.35504796336</v>
       </c>
       <c r="S2">
-        <v>0.1884494263711702</v>
+        <v>0.1957357062276091</v>
       </c>
       <c r="T2">
-        <v>0.1884494263711702</v>
+        <v>0.1957357062276091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H3">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45772859256373</v>
+        <v>2.488505666666667</v>
       </c>
       <c r="N3">
-        <v>2.45772859256373</v>
+        <v>7.465517</v>
       </c>
       <c r="O3">
-        <v>0.0587993443011992</v>
+        <v>0.05324590863128442</v>
       </c>
       <c r="P3">
-        <v>0.0587993443011992</v>
+        <v>0.05324590863128443</v>
       </c>
       <c r="Q3">
-        <v>243.9946107583785</v>
+        <v>260.7824561257057</v>
       </c>
       <c r="R3">
-        <v>243.9946107583785</v>
+        <v>2347.042105131351</v>
       </c>
       <c r="S3">
-        <v>0.02212468521924727</v>
+        <v>0.02061905849367571</v>
       </c>
       <c r="T3">
-        <v>0.02212468521924727</v>
+        <v>0.02061905849367572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H4">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4068707177011</v>
+        <v>20.62432433333333</v>
       </c>
       <c r="N4">
-        <v>18.4068707177011</v>
+        <v>61.87297299999999</v>
       </c>
       <c r="O4">
-        <v>0.4403708090927879</v>
+        <v>0.4412933045499632</v>
       </c>
       <c r="P4">
-        <v>0.4403708090927879</v>
+        <v>0.4412933045499632</v>
       </c>
       <c r="Q4">
-        <v>1827.369087715416</v>
+        <v>2161.321964271124</v>
       </c>
       <c r="R4">
-        <v>1827.369087715416</v>
+        <v>19451.89767844012</v>
       </c>
       <c r="S4">
-        <v>0.1657002411627991</v>
+        <v>0.1708873544142513</v>
       </c>
       <c r="T4">
-        <v>0.1657002411627991</v>
+        <v>0.1708873544142513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9339721155326</v>
+        <v>23.62326166666666</v>
       </c>
       <c r="N5">
-        <v>20.9339721155326</v>
+        <v>70.86978499999999</v>
       </c>
       <c r="O5">
-        <v>0.5008298466060128</v>
+        <v>0.5054607868187523</v>
       </c>
       <c r="P5">
-        <v>0.5008298466060128</v>
+        <v>0.5054607868187523</v>
       </c>
       <c r="Q5">
-        <v>2853.731149939696</v>
+        <v>3228.696201004703</v>
       </c>
       <c r="R5">
-        <v>2853.731149939696</v>
+        <v>29058.26580904232</v>
       </c>
       <c r="S5">
-        <v>0.2587676145654712</v>
+        <v>0.2552805001373801</v>
       </c>
       <c r="T5">
-        <v>0.2587676145654712</v>
+        <v>0.2552805001373801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.45772859256373</v>
+        <v>2.488505666666667</v>
       </c>
       <c r="N6">
-        <v>2.45772859256373</v>
+        <v>7.465517</v>
       </c>
       <c r="O6">
-        <v>0.0587993443011992</v>
+        <v>0.05324590863128442</v>
       </c>
       <c r="P6">
-        <v>0.0587993443011992</v>
+        <v>0.05324590863128443</v>
       </c>
       <c r="Q6">
-        <v>335.0389789376158</v>
+        <v>340.1151333595273</v>
       </c>
       <c r="R6">
-        <v>335.0389789376158</v>
+        <v>3061.036200235746</v>
       </c>
       <c r="S6">
-        <v>0.03038031013116637</v>
+        <v>0.02689158593530534</v>
       </c>
       <c r="T6">
-        <v>0.03038031013116637</v>
+        <v>0.02689158593530535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4068707177011</v>
+        <v>20.62432433333333</v>
       </c>
       <c r="N7">
-        <v>18.4068707177011</v>
+        <v>61.87297299999999</v>
       </c>
       <c r="O7">
-        <v>0.4403708090927879</v>
+        <v>0.4412933045499632</v>
       </c>
       <c r="P7">
-        <v>0.4403708090927879</v>
+        <v>0.4412933045499632</v>
       </c>
       <c r="Q7">
-        <v>2509.235230185557</v>
+        <v>2818.818102382652</v>
       </c>
       <c r="R7">
-        <v>2509.235230185557</v>
+        <v>25369.36292144387</v>
       </c>
       <c r="S7">
-        <v>0.2275297779584032</v>
+        <v>0.2228730268114488</v>
       </c>
       <c r="T7">
-        <v>0.2275297779584032</v>
+        <v>0.2228730268114489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H8">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.9339721155326</v>
+        <v>23.62326166666666</v>
       </c>
       <c r="N8">
-        <v>20.9339721155326</v>
+        <v>70.86978499999999</v>
       </c>
       <c r="O8">
-        <v>0.5008298466060128</v>
+        <v>0.5054607868187523</v>
       </c>
       <c r="P8">
-        <v>0.5008298466060128</v>
+        <v>0.5054607868187523</v>
       </c>
       <c r="Q8">
-        <v>591.2507012566626</v>
+        <v>688.5955252428622</v>
       </c>
       <c r="R8">
-        <v>591.2507012566626</v>
+        <v>6197.35972718576</v>
       </c>
       <c r="S8">
-        <v>0.05361280566937139</v>
+        <v>0.05444458045376309</v>
       </c>
       <c r="T8">
-        <v>0.05361280566937139</v>
+        <v>0.05444458045376309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H9">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.45772859256373</v>
+        <v>2.488505666666667</v>
       </c>
       <c r="N9">
-        <v>2.45772859256373</v>
+        <v>7.465517</v>
       </c>
       <c r="O9">
-        <v>0.0587993443011992</v>
+        <v>0.05324590863128442</v>
       </c>
       <c r="P9">
-        <v>0.0587993443011992</v>
+        <v>0.05324590863128443</v>
       </c>
       <c r="Q9">
-        <v>69.41509933385545</v>
+        <v>72.53756448992355</v>
       </c>
       <c r="R9">
-        <v>69.41509933385545</v>
+        <v>652.8380804093121</v>
       </c>
       <c r="S9">
-        <v>0.006294348950785566</v>
+        <v>0.005735264202303366</v>
       </c>
       <c r="T9">
-        <v>0.006294348950785566</v>
+        <v>0.005735264202303367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4068707177011</v>
+        <v>20.62432433333333</v>
       </c>
       <c r="N10">
-        <v>18.4068707177011</v>
+        <v>61.87297299999999</v>
       </c>
       <c r="O10">
-        <v>0.4403708090927879</v>
+        <v>0.4412933045499632</v>
       </c>
       <c r="P10">
-        <v>0.4403708090927879</v>
+        <v>0.4412933045499632</v>
       </c>
       <c r="Q10">
-        <v>519.8762642712452</v>
+        <v>601.1793649617031</v>
       </c>
       <c r="R10">
-        <v>519.8762642712452</v>
+        <v>5410.614284655328</v>
       </c>
       <c r="S10">
-        <v>0.0471407899715856</v>
+        <v>0.0475329233242631</v>
       </c>
       <c r="T10">
-        <v>0.0471407899715856</v>
+        <v>0.04753292332426311</v>
       </c>
     </row>
   </sheetData>
